--- a/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
+++ b/InputData/bldgs/PCFURfE/Perc Components Fuel Use Reduction for Electricity.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\US-EPS\InputData\bldgs\PCFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shelley\Dropbox (Energy Innovation)\PC (2)\Documents\GitHub_Repositories\eps-us\InputData\bldgs\PCFURfE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8303B6A-3E9D-40AB-BF33-C209787F54A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B3E536-E5ED-4E05-BF83-85AB81B74CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15345" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="AEO Table 4" sheetId="6" r:id="rId2"/>
-    <sheet name="AEO Table 5" sheetId="7" r:id="rId3"/>
+    <sheet name="AEO21 Table 4" sheetId="6" r:id="rId2"/>
+    <sheet name="AEO21 Table 5" sheetId="7" r:id="rId3"/>
     <sheet name="Calculations" sheetId="2" r:id="rId4"/>
     <sheet name="PCFURfE" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="408">
   <si>
     <t>Source:</t>
   </si>
@@ -1249,13 +1249,16 @@
     <t>Energy Consumption</t>
   </si>
   <si>
-    <t>AEO 2021</t>
-  </si>
-  <si>
     <t>EIA</t>
   </si>
   <si>
     <t>https://www.eia.gov/outlooks/aeo/tables_side.php</t>
+  </si>
+  <si>
+    <t>2021, 2022</t>
+  </si>
+  <si>
+    <t>AEO 2021, AEO 2022</t>
   </si>
 </sst>
 </file>
@@ -1331,6 +1334,7 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1341,6 +1345,7 @@
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1432,7 +1437,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1468,6 +1473,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1613,7 +1619,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="16">
     <cellStyle name="Body: normal cell" xfId="13" xr:uid="{F0294189-DCE2-4A9C-A206-033C029239E6}"/>
     <cellStyle name="Body: normal cell 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="9" xr:uid="{BA15F00E-6573-49D1-9ED5-399508B911A2}"/>
@@ -1624,6 +1630,7 @@
     <cellStyle name="Header: bottom row 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="15" xr:uid="{1B35F5B2-BA06-4746-BB83-170B9BA8C646}"/>
     <cellStyle name="Parent row" xfId="12" xr:uid="{6638C3B0-6203-434B-BF78-5E0F5116FFDB}"/>
     <cellStyle name="Parent row 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
@@ -1966,22 +1973,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="71.5703125" customWidth="1"/>
+    <col min="2" max="2" width="71.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1989,128 +1996,128 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="38" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="38" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>315</v>
       </c>
@@ -2129,20 +2136,20 @@
   <dimension ref="A1:AH2837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C87" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B58" sqref="B58"/>
       <selection pane="topRight" activeCell="B58" sqref="B58"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
-      <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="1" max="1" width="37.1796875" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
         <v>318</v>
       </c>
@@ -2240,8 +2247,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="20" t="s">
         <v>43</v>
       </c>
@@ -2253,7 +2260,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>44</v>
       </c>
@@ -2267,7 +2274,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="20" t="s">
         <v>46</v>
       </c>
@@ -2279,7 +2286,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="20" t="s">
         <v>47</v>
       </c>
@@ -2291,7 +2298,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -2299,7 +2306,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>48</v>
       </c>
@@ -2310,7 +2317,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -2355,7 +2362,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -2456,18 +2463,18 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>54</v>
       </c>
@@ -2571,7 +2578,7 @@
         <v>7.6740000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>56</v>
       </c>
@@ -2675,7 +2682,7 @@
         <v>6.1209999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>58</v>
       </c>
@@ -2779,7 +2786,7 @@
         <v>-1.5839999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
@@ -2883,7 +2890,7 @@
         <v>6.8310000000000003E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>62</v>
       </c>
@@ -2987,17 +2994,17 @@
         <v>3.039E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>66</v>
       </c>
@@ -3101,7 +3108,7 @@
         <v>-3.63E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>67</v>
       </c>
@@ -3205,12 +3212,12 @@
         <v>-4.5240000000000002E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>69</v>
       </c>
@@ -3314,7 +3321,7 @@
         <v>-6.6480000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>70</v>
       </c>
@@ -3418,17 +3425,17 @@
         <v>-7.5399999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B32" s="25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B33" s="25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>71</v>
       </c>
@@ -3532,7 +3539,7 @@
         <v>-2.0639999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>73</v>
       </c>
@@ -3636,7 +3643,7 @@
         <v>1.9564000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>75</v>
       </c>
@@ -3740,7 +3747,7 @@
         <v>3.643E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>77</v>
       </c>
@@ -3844,7 +3851,7 @@
         <v>3.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>79</v>
       </c>
@@ -3948,7 +3955,7 @@
         <v>3.3189999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
@@ -4052,7 +4059,7 @@
         <v>1.3436999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>83</v>
       </c>
@@ -4156,7 +4163,7 @@
         <v>-3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>85</v>
       </c>
@@ -4260,7 +4267,7 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>87</v>
       </c>
@@ -4364,7 +4371,7 @@
         <v>7.607E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
@@ -4468,7 +4475,7 @@
         <v>1.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>89</v>
       </c>
@@ -4572,7 +4579,7 @@
         <v>1.026E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>90</v>
       </c>
@@ -4676,7 +4683,7 @@
         <v>-2.4854999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>91</v>
       </c>
@@ -4780,7 +4787,7 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>93</v>
       </c>
@@ -4884,7 +4891,7 @@
         <v>1.1168000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>95</v>
       </c>
@@ -4988,7 +4995,7 @@
         <v>8.7930000000000005E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>335</v>
       </c>
@@ -5092,7 +5099,7 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>337</v>
       </c>
@@ -5196,12 +5203,12 @@
         <v>7.1339999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>98</v>
       </c>
@@ -5305,7 +5312,7 @@
         <v>-2.983E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>99</v>
       </c>
@@ -5409,7 +5416,7 @@
         <v>8.52E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>100</v>
       </c>
@@ -5513,7 +5520,7 @@
         <v>5.5589999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>101</v>
       </c>
@@ -5617,7 +5624,7 @@
         <v>5.2570000000000004E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>102</v>
       </c>
@@ -5721,7 +5728,7 @@
         <v>1.376E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>103</v>
       </c>
@@ -5825,7 +5832,7 @@
         <v>-1.81E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="12" t="s">
         <v>105</v>
       </c>
@@ -5929,12 +5936,12 @@
         <v>-6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="25" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>106</v>
       </c>
@@ -6038,7 +6045,7 @@
         <v>-1.3488E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>107</v>
       </c>
@@ -6142,7 +6149,7 @@
         <v>-2.0957E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>108</v>
       </c>
@@ -6246,7 +6253,7 @@
         <v>-3.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="12" t="s">
         <v>110</v>
       </c>
@@ -6350,12 +6357,12 @@
         <v>-1.4037000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>112</v>
       </c>
@@ -6459,7 +6466,7 @@
         <v>-6.0350000000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>113</v>
       </c>
@@ -6563,7 +6570,7 @@
         <v>-1.6150000000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>114</v>
       </c>
@@ -6667,7 +6674,7 @@
         <v>-8.4010000000000005E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>115</v>
       </c>
@@ -6771,7 +6778,7 @@
         <v>1.9682000000000002E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>116</v>
       </c>
@@ -6875,7 +6882,7 @@
         <v>-1.64E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>117</v>
       </c>
@@ -6979,12 +6986,12 @@
         <v>-1.1620999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="25" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="12" t="s">
         <v>119</v>
       </c>
@@ -7088,7 +7095,7 @@
         <v>-4.3550000000000004E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>121</v>
       </c>
@@ -7192,7 +7199,7 @@
         <v>1.8567E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>123</v>
       </c>
@@ -7296,7 +7303,7 @@
         <v>3.7260000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>125</v>
       </c>
@@ -7400,7 +7407,7 @@
         <v>3.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>127</v>
       </c>
@@ -7504,7 +7511,7 @@
         <v>3.5279999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>129</v>
       </c>
@@ -7608,7 +7615,7 @@
         <v>1.3487000000000001E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>131</v>
       </c>
@@ -7712,7 +7719,7 @@
         <v>-3.2299999999999999E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>133</v>
       </c>
@@ -7816,7 +7823,7 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>134</v>
       </c>
@@ -7920,7 +7927,7 @@
         <v>7.607E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>135</v>
       </c>
@@ -8024,7 +8031,7 @@
         <v>1.5869999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>136</v>
       </c>
@@ -8128,7 +8135,7 @@
         <v>1.026E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>137</v>
       </c>
@@ -8232,7 +8239,7 @@
         <v>-2.4854999999999999E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>139</v>
       </c>
@@ -8336,7 +8343,7 @@
         <v>-2.1619999999999999E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>140</v>
       </c>
@@ -8440,7 +8447,7 @@
         <v>1.0236E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="12" t="s">
         <v>349</v>
       </c>
@@ -8544,7 +8551,7 @@
         <v>3.1770000000000001E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>351</v>
       </c>
@@ -8648,7 +8655,7 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>141</v>
       </c>
@@ -8752,7 +8759,7 @@
         <v>2.2759999999999998E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>143</v>
       </c>
@@ -8856,12 +8863,12 @@
         <v>-2.8930000000000002E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="25" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="98" spans="1:34" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="17" t="s">
         <v>145</v>
       </c>
@@ -8965,7 +8972,7 @@
         <v>-5.6519999999999999E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>146</v>
       </c>
@@ -9069,7 +9076,7 @@
         <v>1.304E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>147</v>
       </c>
@@ -9173,7 +9180,7 @@
         <v>8.2000000000000001E-5</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>148</v>
       </c>
@@ -9277,7 +9284,7 @@
         <v>-2.911E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>149</v>
       </c>
@@ -9381,7 +9388,7 @@
         <v>1.08E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>150</v>
       </c>
@@ -9485,7 +9492,7 @@
         <v>7.639E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>151</v>
       </c>
@@ -9589,7 +9596,7 @@
         <v>-6.4640000000000001E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
         <v>152</v>
       </c>
@@ -9693,7 +9700,7 @@
         <v>-9.6159999999999995E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>153</v>
       </c>
@@ -9797,7 +9804,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
         <v>154</v>
       </c>
@@ -9901,7 +9908,7 @@
         <v>9.6290000000000004E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>155</v>
       </c>
@@ -10005,7 +10012,7 @@
         <v>4.0530000000000002E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="12" t="s">
         <v>156</v>
       </c>
@@ -10109,7 +10116,7 @@
         <v>-3.0845999999999998E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
         <v>157</v>
       </c>
@@ -10213,7 +10220,7 @@
         <v>-8.2920000000000008E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
         <v>158</v>
       </c>
@@ -10317,7 +10324,7 @@
         <v>4.9240000000000004E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
         <v>159</v>
       </c>
@@ -10421,7 +10428,7 @@
         <v>1.2310000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>356</v>
       </c>
@@ -10525,7 +10532,7 @@
         <v>5.7514999999999997E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>358</v>
       </c>
@@ -10629,12 +10636,12 @@
         <v>7.0899999999999999E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="25" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
         <v>161</v>
       </c>
@@ -10738,7 +10745,7 @@
         <v>4.5310000000000003E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
         <v>163</v>
       </c>
@@ -10842,7 +10849,7 @@
         <v>3.7659999999999998E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
         <v>165</v>
       </c>
@@ -10946,7 +10953,7 @@
         <v>5.6439999999999997E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
         <v>167</v>
       </c>
@@ -11050,7 +11057,7 @@
         <v>1.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12" t="s">
         <v>169</v>
       </c>
@@ -11154,12 +11161,12 @@
         <v>5.1526000000000002E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>172</v>
       </c>
@@ -11263,7 +11270,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="12" t="s">
         <v>174</v>
       </c>
@@ -11367,7 +11374,7 @@
         <v>-5.3799999999999996E-4</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>176</v>
       </c>
@@ -11471,7 +11478,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="12" t="s">
         <v>178</v>
       </c>
@@ -11575,7 +11582,7 @@
         <v>5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>180</v>
       </c>
@@ -11679,7 +11686,7 @@
         <v>-4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="12" t="s">
         <v>182</v>
       </c>
@@ -11783,7 +11790,7 @@
         <v>7.6099999999999996E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>184</v>
       </c>
@@ -11887,7 +11894,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="12" t="s">
         <v>186</v>
       </c>
@@ -11991,7 +11998,7 @@
         <v>-2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
         <v>188</v>
       </c>
@@ -12095,7 +12102,7 @@
         <v>-4.0810000000000004E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="12" t="s">
         <v>190</v>
       </c>
@@ -12199,12 +12206,12 @@
         <v>-2.114E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
         <v>192</v>
       </c>
@@ -12308,7 +12315,7 @@
         <v>4.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
         <v>193</v>
       </c>
@@ -12412,7 +12419,7 @@
         <v>7.5940000000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
         <v>194</v>
       </c>
@@ -12516,7 +12523,7 @@
         <v>7.28E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="12" t="s">
         <v>195</v>
       </c>
@@ -12620,7 +12627,7 @@
         <v>6.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
         <v>196</v>
       </c>
@@ -12724,7 +12731,7 @@
         <v>6.5139999999999998E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A141" s="12" t="s">
         <v>197</v>
       </c>
@@ -12828,7 +12835,7 @@
         <v>8.4969999999999993E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>198</v>
       </c>
@@ -12932,7 +12939,7 @@
         <v>5.9420000000000002E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A143" s="12" t="s">
         <v>199</v>
       </c>
@@ -13036,7 +13043,7 @@
         <v>3.4979999999999998E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
         <v>200</v>
       </c>
@@ -13140,7 +13147,7 @@
         <v>4.0660000000000002E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A145" s="12" t="s">
         <v>201</v>
       </c>
@@ -13244,8 +13251,8 @@
         <v>7.528E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="147" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B147" s="59" t="s">
         <v>361</v>
       </c>
@@ -13282,107 +13289,107 @@
       <c r="AG147" s="60"/>
       <c r="AH147" s="37"/>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B148" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B149" s="13" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="13" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="13" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="13" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="13" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="13" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B156" s="13" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B157" s="13" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="13" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="13" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="13" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="13" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B165" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="55"/>
       <c r="C308" s="55"/>
       <c r="D308" s="55"/>
@@ -13417,7 +13424,7 @@
       <c r="AG308" s="55"/>
       <c r="AH308" s="55"/>
     </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="55"/>
       <c r="C511" s="55"/>
       <c r="D511" s="55"/>
@@ -13452,7 +13459,7 @@
       <c r="AG511" s="55"/>
       <c r="AH511" s="55"/>
     </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B712" s="55"/>
       <c r="C712" s="55"/>
       <c r="D712" s="55"/>
@@ -13487,7 +13494,7 @@
       <c r="AG712" s="55"/>
       <c r="AH712" s="55"/>
     </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B887" s="55"/>
       <c r="C887" s="55"/>
       <c r="D887" s="55"/>
@@ -13522,7 +13529,7 @@
       <c r="AG887" s="55"/>
       <c r="AH887" s="55"/>
     </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1100" s="55"/>
       <c r="C1100" s="55"/>
       <c r="D1100" s="55"/>
@@ -13557,7 +13564,7 @@
       <c r="AG1100" s="55"/>
       <c r="AH1100" s="55"/>
     </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1227" s="55"/>
       <c r="C1227" s="55"/>
       <c r="D1227" s="55"/>
@@ -13592,7 +13599,7 @@
       <c r="AG1227" s="55"/>
       <c r="AH1227" s="55"/>
     </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1390" s="55"/>
       <c r="C1390" s="55"/>
       <c r="D1390" s="55"/>
@@ -13627,7 +13634,7 @@
       <c r="AG1390" s="55"/>
       <c r="AH1390" s="55"/>
     </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1502" s="55"/>
       <c r="C1502" s="55"/>
       <c r="D1502" s="55"/>
@@ -13662,7 +13669,7 @@
       <c r="AG1502" s="55"/>
       <c r="AH1502" s="55"/>
     </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1604" s="55"/>
       <c r="C1604" s="55"/>
       <c r="D1604" s="55"/>
@@ -13697,7 +13704,7 @@
       <c r="AG1604" s="55"/>
       <c r="AH1604" s="55"/>
     </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1698" s="55"/>
       <c r="C1698" s="55"/>
       <c r="D1698" s="55"/>
@@ -13732,7 +13739,7 @@
       <c r="AG1698" s="55"/>
       <c r="AH1698" s="55"/>
     </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1945" s="55"/>
       <c r="C1945" s="55"/>
       <c r="D1945" s="55"/>
@@ -13767,7 +13774,7 @@
       <c r="AG1945" s="55"/>
       <c r="AH1945" s="55"/>
     </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2031" s="55"/>
       <c r="C2031" s="55"/>
       <c r="D2031" s="55"/>
@@ -13802,7 +13809,7 @@
       <c r="AG2031" s="55"/>
       <c r="AH2031" s="55"/>
     </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2153" s="55"/>
       <c r="C2153" s="55"/>
       <c r="D2153" s="55"/>
@@ -13837,7 +13844,7 @@
       <c r="AG2153" s="55"/>
       <c r="AH2153" s="55"/>
     </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2317" s="55"/>
       <c r="C2317" s="55"/>
       <c r="D2317" s="55"/>
@@ -13872,7 +13879,7 @@
       <c r="AG2317" s="55"/>
       <c r="AH2317" s="55"/>
     </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2419" s="55"/>
       <c r="C2419" s="55"/>
       <c r="D2419" s="55"/>
@@ -13907,7 +13914,7 @@
       <c r="AG2419" s="55"/>
       <c r="AH2419" s="55"/>
     </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2509" s="55"/>
       <c r="C2509" s="55"/>
       <c r="D2509" s="55"/>
@@ -13942,7 +13949,7 @@
       <c r="AG2509" s="55"/>
       <c r="AH2509" s="55"/>
     </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2598" s="55"/>
       <c r="C2598" s="55"/>
       <c r="D2598" s="55"/>
@@ -13977,7 +13984,7 @@
       <c r="AG2598" s="55"/>
       <c r="AH2598" s="55"/>
     </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2719" s="55"/>
       <c r="C2719" s="55"/>
       <c r="D2719" s="55"/>
@@ -14012,7 +14019,7 @@
       <c r="AG2719" s="55"/>
       <c r="AH2719" s="55"/>
     </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2837" s="55"/>
       <c r="C2837" s="55"/>
       <c r="D2837" s="55"/>
@@ -14081,20 +14088,20 @@
   <dimension ref="A1:AH2837"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B58" sqref="B58"/>
       <selection pane="topRight" activeCell="B58" sqref="B58"/>
       <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="18" t="s">
         <v>318</v>
       </c>
@@ -14192,8 +14199,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C3" s="20" t="s">
         <v>43</v>
       </c>
@@ -14205,7 +14212,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="20" t="s">
         <v>44</v>
       </c>
@@ -14219,7 +14226,7 @@
       </c>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="20" t="s">
         <v>46</v>
       </c>
@@ -14231,7 +14238,7 @@
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="20" t="s">
         <v>47</v>
       </c>
@@ -14243,7 +14250,7 @@
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
     </row>
-    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -14251,7 +14258,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
     </row>
-    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>204</v>
       </c>
@@ -14262,7 +14269,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
@@ -14270,7 +14277,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="18"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -14307,7 +14314,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>51</v>
       </c>
@@ -14408,18 +14415,18 @@
         <v>326</v>
       </c>
     </row>
-    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>207</v>
       </c>
@@ -14523,7 +14530,7 @@
         <v>9.5409999999999991E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>209</v>
       </c>
@@ -14627,7 +14634,7 @@
         <v>9.9399999999999992E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>211</v>
       </c>
@@ -14731,17 +14738,17 @@
         <v>9.5479999999999992E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="25" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>213</v>
       </c>
@@ -14845,7 +14852,7 @@
         <v>-2.2070000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>215</v>
       </c>
@@ -14949,17 +14956,17 @@
         <v>-2.64E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="25" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="25" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>216</v>
       </c>
@@ -15063,7 +15070,7 @@
         <v>-1.0041E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>217</v>
       </c>
@@ -15167,7 +15174,7 @@
         <v>9.8639999999999995E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>218</v>
       </c>
@@ -15271,7 +15278,7 @@
         <v>-9.6200000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>219</v>
       </c>
@@ -15375,7 +15382,7 @@
         <v>-6.9179999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>221</v>
       </c>
@@ -15479,7 +15486,7 @@
         <v>-2.8159999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>222</v>
       </c>
@@ -15583,7 +15590,7 @@
         <v>-1.3917000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>223</v>
       </c>
@@ -15687,7 +15694,7 @@
         <v>2.696E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>224</v>
       </c>
@@ -15791,7 +15798,7 @@
         <v>2.2929999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>226</v>
       </c>
@@ -15895,7 +15902,7 @@
         <v>2.4781999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>228</v>
       </c>
@@ -15999,7 +16006,7 @@
         <v>2.1916999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>383</v>
       </c>
@@ -16103,7 +16110,7 @@
         <v>9.8980000000000005E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>384</v>
       </c>
@@ -16207,7 +16214,7 @@
         <v>3.4981999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12" t="s">
         <v>385</v>
       </c>
@@ -16311,12 +16318,12 @@
         <v>9.1400000000000006E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B43" s="25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>229</v>
       </c>
@@ -16420,7 +16427,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12" t="s">
         <v>230</v>
       </c>
@@ -16524,7 +16531,7 @@
         <v>-4.3800000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>231</v>
       </c>
@@ -16628,7 +16635,7 @@
         <v>5.8240000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12" t="s">
         <v>232</v>
       </c>
@@ -16732,7 +16739,7 @@
         <v>1.1350000000000001E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>233</v>
       </c>
@@ -16836,7 +16843,7 @@
         <v>1.2897E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>235</v>
       </c>
@@ -16940,12 +16947,12 @@
         <v>4.875E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="25" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>237</v>
       </c>
@@ -17049,7 +17056,7 @@
         <v>-7.8720000000000005E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12" t="s">
         <v>238</v>
       </c>
@@ -17153,7 +17160,7 @@
         <v>-4.1250000000000002E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>239</v>
       </c>
@@ -17257,7 +17264,7 @@
         <v>8.5550000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="12" t="s">
         <v>240</v>
       </c>
@@ -17361,7 +17368,7 @@
         <v>-2.379E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="12" t="s">
         <v>241</v>
       </c>
@@ -17465,7 +17472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>243</v>
       </c>
@@ -17569,12 +17576,12 @@
         <v>6.2649999999999997E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="25" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
         <v>244</v>
       </c>
@@ -17678,7 +17685,7 @@
         <v>-1.083E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>245</v>
       </c>
@@ -17782,7 +17789,7 @@
         <v>9.2820000000000003E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="50" t="s">
         <v>246</v>
       </c>
@@ -17886,7 +17893,7 @@
         <v>5.2440000000000004E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>247</v>
       </c>
@@ -17990,7 +17997,7 @@
         <v>-6.9179999999999997E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" s="54" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="50" t="s">
         <v>248</v>
       </c>
@@ -18094,7 +18101,7 @@
         <v>8.9730000000000001E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>249</v>
       </c>
@@ -18198,7 +18205,7 @@
         <v>-1.3917000000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12" t="s">
         <v>250</v>
       </c>
@@ -18302,7 +18309,7 @@
         <v>2.696E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>251</v>
       </c>
@@ -18406,7 +18413,7 @@
         <v>2.2929999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="12" t="s">
         <v>252</v>
       </c>
@@ -18510,7 +18517,7 @@
         <v>2.4781999999999998E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>253</v>
       </c>
@@ -18614,7 +18621,7 @@
         <v>1.5814000000000002E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="12" t="s">
         <v>387</v>
       </c>
@@ -18718,7 +18725,7 @@
         <v>7.3200000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>389</v>
       </c>
@@ -18822,7 +18829,7 @@
         <v>3.4981999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12" t="s">
         <v>255</v>
       </c>
@@ -18926,7 +18933,7 @@
         <v>6.8830000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>256</v>
       </c>
@@ -19030,12 +19037,12 @@
         <v>-9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>257</v>
       </c>
@@ -19139,7 +19146,7 @@
         <v>-2.4429999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12" t="s">
         <v>258</v>
       </c>
@@ -19243,7 +19250,7 @@
         <v>3.153E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:34" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="40" t="s">
         <v>259</v>
       </c>
@@ -19347,7 +19354,7 @@
         <v>4.019E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12" t="s">
         <v>260</v>
       </c>
@@ -19451,7 +19458,7 @@
         <v>-1.3395000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="45" t="s">
         <v>261</v>
       </c>
@@ -19555,7 +19562,7 @@
         <v>4.2919999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="12" t="s">
         <v>262</v>
       </c>
@@ -19659,7 +19666,7 @@
         <v>-2.0348999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>263</v>
       </c>
@@ -19763,7 +19770,7 @@
         <v>-3.8440000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="12" t="s">
         <v>264</v>
       </c>
@@ -19867,7 +19874,7 @@
         <v>-4.2449999999999996E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>265</v>
       </c>
@@ -19971,7 +19978,7 @@
         <v>1.8098E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>266</v>
       </c>
@@ -20075,7 +20082,7 @@
         <v>1.3627999999999999E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>267</v>
       </c>
@@ -20179,7 +20186,7 @@
         <v>3.5990000000000002E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>391</v>
       </c>
@@ -20283,7 +20290,7 @@
         <v>3.4981999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>392</v>
       </c>
@@ -20387,12 +20394,12 @@
         <v>3.3279999999999998E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B92" s="25" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>268</v>
       </c>
@@ -20496,7 +20503,7 @@
         <v>-3.9649999999999998E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>270</v>
       </c>
@@ -20600,7 +20607,7 @@
         <v>3.7794000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="12" t="s">
         <v>271</v>
       </c>
@@ -20704,7 +20711,7 @@
         <v>-3.5500000000000002E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>272</v>
       </c>
@@ -20808,12 +20815,12 @@
         <v>2.8707E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="25" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>273</v>
       </c>
@@ -20917,7 +20924,7 @@
         <v>-5.0199999999999995E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>274</v>
       </c>
@@ -21021,7 +21028,7 @@
         <v>-5.3799999999999996E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>275</v>
       </c>
@@ -21125,7 +21132,7 @@
         <v>3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>276</v>
       </c>
@@ -21229,7 +21236,7 @@
         <v>5.1999999999999997E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="12" t="s">
         <v>277</v>
       </c>
@@ -21333,7 +21340,7 @@
         <v>-4.8899999999999996E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>278</v>
       </c>
@@ -21437,7 +21444,7 @@
         <v>7.6099999999999996E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="12" t="s">
         <v>279</v>
       </c>
@@ -21541,7 +21548,7 @@
         <v>7.9299999999999998E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>280</v>
       </c>
@@ -21645,7 +21652,7 @@
         <v>-2.7920000000000002E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="12" t="s">
         <v>281</v>
       </c>
@@ -21749,7 +21756,7 @@
         <v>-4.0810000000000004E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>282</v>
       </c>
@@ -21853,12 +21860,12 @@
         <v>-2.114E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="25" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="12" t="s">
         <v>283</v>
       </c>
@@ -21962,7 +21969,7 @@
         <v>4.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
         <v>284</v>
       </c>
@@ -22066,7 +22073,7 @@
         <v>7.5940000000000001E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="12" t="s">
         <v>285</v>
       </c>
@@ -22170,7 +22177,7 @@
         <v>7.28E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>286</v>
       </c>
@@ -22274,7 +22281,7 @@
         <v>6.8050000000000003E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="12" t="s">
         <v>287</v>
       </c>
@@ -22378,7 +22385,7 @@
         <v>6.5139999999999998E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
         <v>288</v>
       </c>
@@ -22482,7 +22489,7 @@
         <v>8.4969999999999993E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="12" t="s">
         <v>289</v>
       </c>
@@ -22586,7 +22593,7 @@
         <v>5.9420000000000002E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
         <v>290</v>
       </c>
@@ -22690,7 +22697,7 @@
         <v>3.4979999999999998E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="12" t="s">
         <v>291</v>
       </c>
@@ -22794,7 +22801,7 @@
         <v>4.0660000000000002E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
         <v>292</v>
       </c>
@@ -22898,8 +22905,8 @@
         <v>7.528E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="122" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="59" t="s">
         <v>361</v>
       </c>
@@ -22936,97 +22943,97 @@
       <c r="AG122" s="60"/>
       <c r="AH122" s="37"/>
     </row>
-    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="13" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="13" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="13" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="13" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="13" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="13" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="13" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="13" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="13" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="13" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="13" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="13" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="13" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="13" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="13" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="13" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B308" s="55"/>
       <c r="C308" s="55"/>
       <c r="D308" s="55"/>
@@ -23061,7 +23068,7 @@
       <c r="AG308" s="55"/>
       <c r="AH308" s="55"/>
     </row>
-    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B511" s="55"/>
       <c r="C511" s="55"/>
       <c r="D511" s="55"/>
@@ -23096,7 +23103,7 @@
       <c r="AG511" s="55"/>
       <c r="AH511" s="55"/>
     </row>
-    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B712" s="55"/>
       <c r="C712" s="55"/>
       <c r="D712" s="55"/>
@@ -23131,7 +23138,7 @@
       <c r="AG712" s="55"/>
       <c r="AH712" s="55"/>
     </row>
-    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B887" s="55"/>
       <c r="C887" s="55"/>
       <c r="D887" s="55"/>
@@ -23166,7 +23173,7 @@
       <c r="AG887" s="55"/>
       <c r="AH887" s="55"/>
     </row>
-    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1100" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1100" s="55"/>
       <c r="C1100" s="55"/>
       <c r="D1100" s="55"/>
@@ -23201,7 +23208,7 @@
       <c r="AG1100" s="55"/>
       <c r="AH1100" s="55"/>
     </row>
-    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1227" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1227" s="55"/>
       <c r="C1227" s="55"/>
       <c r="D1227" s="55"/>
@@ -23236,7 +23243,7 @@
       <c r="AG1227" s="55"/>
       <c r="AH1227" s="55"/>
     </row>
-    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1390" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1390" s="55"/>
       <c r="C1390" s="55"/>
       <c r="D1390" s="55"/>
@@ -23271,7 +23278,7 @@
       <c r="AG1390" s="55"/>
       <c r="AH1390" s="55"/>
     </row>
-    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1502" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1502" s="55"/>
       <c r="C1502" s="55"/>
       <c r="D1502" s="55"/>
@@ -23306,7 +23313,7 @@
       <c r="AG1502" s="55"/>
       <c r="AH1502" s="55"/>
     </row>
-    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1604" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1604" s="55"/>
       <c r="C1604" s="55"/>
       <c r="D1604" s="55"/>
@@ -23341,7 +23348,7 @@
       <c r="AG1604" s="55"/>
       <c r="AH1604" s="55"/>
     </row>
-    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1698" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1698" s="55"/>
       <c r="C1698" s="55"/>
       <c r="D1698" s="55"/>
@@ -23376,7 +23383,7 @@
       <c r="AG1698" s="55"/>
       <c r="AH1698" s="55"/>
     </row>
-    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1945" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1945" s="55"/>
       <c r="C1945" s="55"/>
       <c r="D1945" s="55"/>
@@ -23411,7 +23418,7 @@
       <c r="AG1945" s="55"/>
       <c r="AH1945" s="55"/>
     </row>
-    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2031" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2031" s="55"/>
       <c r="C2031" s="55"/>
       <c r="D2031" s="55"/>
@@ -23446,7 +23453,7 @@
       <c r="AG2031" s="55"/>
       <c r="AH2031" s="55"/>
     </row>
-    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2153" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2153" s="55"/>
       <c r="C2153" s="55"/>
       <c r="D2153" s="55"/>
@@ -23481,7 +23488,7 @@
       <c r="AG2153" s="55"/>
       <c r="AH2153" s="55"/>
     </row>
-    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2317" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2317" s="55"/>
       <c r="C2317" s="55"/>
       <c r="D2317" s="55"/>
@@ -23516,7 +23523,7 @@
       <c r="AG2317" s="55"/>
       <c r="AH2317" s="55"/>
     </row>
-    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2419" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2419" s="55"/>
       <c r="C2419" s="55"/>
       <c r="D2419" s="55"/>
@@ -23551,7 +23558,7 @@
       <c r="AG2419" s="55"/>
       <c r="AH2419" s="55"/>
     </row>
-    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2509" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2509" s="55"/>
       <c r="C2509" s="55"/>
       <c r="D2509" s="55"/>
@@ -23586,7 +23593,7 @@
       <c r="AG2509" s="55"/>
       <c r="AH2509" s="55"/>
     </row>
-    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2598" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2598" s="55"/>
       <c r="C2598" s="55"/>
       <c r="D2598" s="55"/>
@@ -23621,7 +23628,7 @@
       <c r="AG2598" s="55"/>
       <c r="AH2598" s="55"/>
     </row>
-    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2719" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2719" s="55"/>
       <c r="C2719" s="55"/>
       <c r="D2719" s="55"/>
@@ -23656,7 +23663,7 @@
       <c r="AG2719" s="55"/>
       <c r="AH2719" s="55"/>
     </row>
-    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2837" spans="2:34" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2837" s="55"/>
       <c r="C2837" s="55"/>
       <c r="D2837" s="55"/>
@@ -23725,20 +23732,20 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -23749,19 +23756,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="7">
-        <f>-((1-F12/F13)*'AEO Table 4'!C98+(1-F19/F18)*'AEO Table 5'!C61)/SUM('AEO Table 5'!C61,'AEO Table 4'!C98)</f>
+        <f>-((1-F12/F13)*'AEO21 Table 4'!C98+(1-F19/F18)*'AEO21 Table 5'!C61)/SUM('AEO21 Table 5'!C61,'AEO21 Table 4'!C98)</f>
         <v>-0.67217630383678018</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -23772,7 +23779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23783,7 +23790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -23794,19 +23801,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7">
-        <f>-(((1-F15/F14)*'AEO Table 4'!C100+(1-F17/F16)*'AEO Table 4'!C103)/SUM('AEO Table 4'!C100,'AEO Table 4'!C103)*SUM('AEO Table 4'!C100,'AEO Table 4'!C103)+((1-F21/F20)*'AEO Table 5'!C63+(1-F23/F22)*'AEO Table 5'!C65)*SUM('AEO Table 5'!C63,'AEO Table 5'!C65))/SUM('AEO Table 5'!C63,'AEO Table 5'!C65,'AEO Table 4'!C100,'AEO Table 4'!C103)</f>
+        <f>-(((1-F15/F14)*'AEO21 Table 4'!C100+(1-F17/F16)*'AEO21 Table 4'!C103)/SUM('AEO21 Table 4'!C100,'AEO21 Table 4'!C103)*SUM('AEO21 Table 4'!C100,'AEO21 Table 4'!C103)+((1-F21/F20)*'AEO21 Table 5'!C63+(1-F23/F22)*'AEO21 Table 5'!C65)*SUM('AEO21 Table 5'!C63,'AEO21 Table 5'!C65))/SUM('AEO21 Table 5'!C63,'AEO21 Table 5'!C65,'AEO21 Table 4'!C100,'AEO21 Table 4'!C103)</f>
         <v>-0.69311452545228336</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -23818,7 +23825,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -23838,7 +23845,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -23859,7 +23866,7 @@
         <v>0.38774336704545448</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -23880,7 +23887,7 @@
         <v>1.0869565217391304</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -23901,7 +23908,7 @@
         <v>1.5873015873015872</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -23922,7 +23929,7 @@
         <v>0.3048780487804878</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -23943,7 +23950,7 @@
         <v>0.30120481927710846</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -23964,7 +23971,7 @@
         <v>0.26737967914438499</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -23985,7 +23992,7 @@
         <v>1.2345679012345678</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -24006,7 +24013,7 @@
         <v>0.29411764705882354</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -24027,7 +24034,7 @@
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -24048,7 +24055,7 @@
         <v>0.25641025641025644</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -24070,7 +24077,7 @@
         <v>3.1578947368421053</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -24092,7 +24099,7 @@
         <v>1.4285714285714284</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -24112,22 +24119,22 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.1796875" customWidth="1"/>
+    <col min="2" max="2" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="15" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24136,7 +24143,7 @@
         <v>0.67217630383678018</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24145,7 +24152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24154,7 +24161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24163,7 +24170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24172,7 +24179,7 @@
         <v>0.69311452545228336</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
